--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Gpr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Gpr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H2">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I2">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J2">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4275125</v>
+        <v>2.78461</v>
       </c>
       <c r="N2">
-        <v>2.855025</v>
+        <v>5.56922</v>
       </c>
       <c r="O2">
-        <v>0.2159646096484578</v>
+        <v>0.4159141428995865</v>
       </c>
       <c r="P2">
-        <v>0.1673162739818381</v>
+        <v>0.3525044550271074</v>
       </c>
       <c r="Q2">
-        <v>1.2538770170625</v>
+        <v>12.41980335299</v>
       </c>
       <c r="R2">
-        <v>5.01550806825</v>
+        <v>49.67921341196</v>
       </c>
       <c r="S2">
-        <v>0.002041391822758581</v>
+        <v>0.0182009674945933</v>
       </c>
       <c r="T2">
-        <v>0.001116003649539206</v>
+        <v>0.01132704405506484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H3">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I3">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J3">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.045180999999999</v>
       </c>
       <c r="O3">
-        <v>0.254424052392026</v>
+        <v>0.2511856395675132</v>
       </c>
       <c r="P3">
-        <v>0.2956684745261299</v>
+        <v>0.3193353429956289</v>
       </c>
       <c r="Q3">
-        <v>1.477170136355</v>
+        <v>7.500769814592999</v>
       </c>
       <c r="R3">
-        <v>8.863020818129998</v>
+        <v>45.004618887558</v>
       </c>
       <c r="S3">
-        <v>0.002404927274480833</v>
+        <v>0.01099222457068671</v>
       </c>
       <c r="T3">
-        <v>0.001972115973970757</v>
+        <v>0.01026121924664066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H4">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I4">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J4">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2411293333333333</v>
+        <v>0.383298</v>
       </c>
       <c r="N4">
-        <v>0.723388</v>
+        <v>1.149894</v>
       </c>
       <c r="O4">
-        <v>0.0364798223119771</v>
+        <v>0.05725004907154887</v>
       </c>
       <c r="P4">
-        <v>0.04239352888439643</v>
+        <v>0.07278268012557246</v>
       </c>
       <c r="Q4">
-        <v>0.2117995668733333</v>
+        <v>1.709570024382</v>
       </c>
       <c r="R4">
-        <v>1.27079740124</v>
+        <v>10.257420146292</v>
       </c>
       <c r="S4">
-        <v>0.000344823214713633</v>
+        <v>0.002505339864017806</v>
       </c>
       <c r="T4">
-        <v>0.000282765877017843</v>
+        <v>0.002338729659926297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H5">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I5">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J5">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.338657</v>
+        <v>1.5018515</v>
       </c>
       <c r="N5">
-        <v>2.677314</v>
+        <v>3.003703</v>
       </c>
       <c r="O5">
-        <v>0.2025218948752992</v>
+        <v>0.2243191252581002</v>
       </c>
       <c r="P5">
-        <v>0.1569016743318924</v>
+        <v>0.1901197455080402</v>
       </c>
       <c r="Q5">
-        <v>1.175829455805</v>
+        <v>6.6984964843885</v>
       </c>
       <c r="R5">
-        <v>4.70331782322</v>
+        <v>26.793985937554</v>
       </c>
       <c r="S5">
-        <v>0.001914325411005882</v>
+        <v>0.009816509433351958</v>
       </c>
       <c r="T5">
-        <v>0.001046538014540121</v>
+        <v>0.00610912770717092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H6">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I6">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J6">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.842907666666667</v>
+        <v>0.1019216666666667</v>
       </c>
       <c r="N6">
-        <v>5.528723</v>
+        <v>0.305765</v>
       </c>
       <c r="O6">
-        <v>0.2788086513076536</v>
+        <v>0.01522319557660284</v>
       </c>
       <c r="P6">
-        <v>0.3240060357571966</v>
+        <v>0.01935343274127499</v>
       </c>
       <c r="Q6">
-        <v>1.618745592631667</v>
+        <v>0.4545868388783333</v>
       </c>
       <c r="R6">
-        <v>9.71247355579</v>
+        <v>2.72752103327</v>
       </c>
       <c r="S6">
-        <v>0.002635421154513485</v>
+        <v>0.0006661877038417495</v>
       </c>
       <c r="T6">
-        <v>0.002161128202131802</v>
+        <v>0.0006218848645765299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H7">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I7">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J7">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.07800366666666668</v>
+        <v>0.2417476666666667</v>
       </c>
       <c r="N7">
-        <v>0.234011</v>
+        <v>0.7252430000000001</v>
       </c>
       <c r="O7">
-        <v>0.01180096946458619</v>
+        <v>0.03610784762664848</v>
       </c>
       <c r="P7">
-        <v>0.01371401251854675</v>
+        <v>0.04590434360237601</v>
       </c>
       <c r="Q7">
-        <v>0.06851569067166667</v>
+        <v>1.078233031212333</v>
       </c>
       <c r="R7">
-        <v>0.41109414403</v>
+        <v>6.469398187274001</v>
       </c>
       <c r="S7">
-        <v>0.0001115479179891731</v>
+        <v>0.001580128428359367</v>
       </c>
       <c r="T7">
-        <v>9.147279972410719E-05</v>
+        <v>0.001475046669305108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>221.29686</v>
       </c>
       <c r="I8">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J8">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4275125</v>
+        <v>2.78461</v>
       </c>
       <c r="N8">
-        <v>2.855025</v>
+        <v>5.56922</v>
       </c>
       <c r="O8">
-        <v>0.2159646096484578</v>
+        <v>0.4159141428995865</v>
       </c>
       <c r="P8">
-        <v>0.1673162739818381</v>
+        <v>0.3525044550271074</v>
       </c>
       <c r="Q8">
-        <v>105.30134462025</v>
+        <v>205.4084831082</v>
       </c>
       <c r="R8">
-        <v>631.8080677215</v>
+        <v>1232.4508986492</v>
       </c>
       <c r="S8">
-        <v>0.1714373107634262</v>
+        <v>0.3010219258637464</v>
       </c>
       <c r="T8">
-        <v>0.1405839846712738</v>
+        <v>0.2810033546413386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>221.29686</v>
       </c>
       <c r="I9">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J9">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.045180999999999</v>
       </c>
       <c r="O9">
-        <v>0.254424052392026</v>
+        <v>0.2511856395675132</v>
       </c>
       <c r="P9">
-        <v>0.2956684745261299</v>
+        <v>0.3193353429956289</v>
       </c>
       <c r="Q9">
         <v>124.05363482574</v>
@@ -1013,10 +1013,10 @@
         <v>1116.48271343166</v>
       </c>
       <c r="S9">
-        <v>0.2019672362366315</v>
+        <v>0.181798061601826</v>
       </c>
       <c r="T9">
-        <v>0.2484292250918298</v>
+        <v>0.2545621803004268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>221.29686</v>
       </c>
       <c r="I10">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J10">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2411293333333333</v>
+        <v>0.383298</v>
       </c>
       <c r="N10">
-        <v>0.723388</v>
+        <v>1.149894</v>
       </c>
       <c r="O10">
-        <v>0.0364798223119771</v>
+        <v>0.05725004907154887</v>
       </c>
       <c r="P10">
-        <v>0.04239352888439643</v>
+        <v>0.07278268012557246</v>
       </c>
       <c r="Q10">
-        <v>17.78705477352</v>
+        <v>28.27421461476</v>
       </c>
       <c r="R10">
-        <v>160.08349296168</v>
+        <v>254.46793153284</v>
       </c>
       <c r="S10">
-        <v>0.02895846057589301</v>
+        <v>0.04143528254934166</v>
       </c>
       <c r="T10">
-        <v>0.03562027215291753</v>
+        <v>0.05801962779023766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>221.29686</v>
       </c>
       <c r="I11">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J11">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.338657</v>
+        <v>1.5018515</v>
       </c>
       <c r="N11">
-        <v>2.677314</v>
+        <v>3.003703</v>
       </c>
       <c r="O11">
-        <v>0.2025218948752992</v>
+        <v>0.2243191252581002</v>
       </c>
       <c r="P11">
-        <v>0.1569016743318924</v>
+        <v>0.1901197455080402</v>
       </c>
       <c r="Q11">
-        <v>98.74686357233999</v>
+        <v>110.78500704543</v>
       </c>
       <c r="R11">
-        <v>592.48118143404</v>
+        <v>664.7100422725799</v>
       </c>
       <c r="S11">
-        <v>0.1607661972239374</v>
+        <v>0.1623531592902979</v>
       </c>
       <c r="T11">
-        <v>0.1318333360780332</v>
+        <v>0.1515563434998533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>221.29686</v>
       </c>
       <c r="I12">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J12">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.842907666666667</v>
+        <v>0.1019216666666667</v>
       </c>
       <c r="N12">
-        <v>5.528723</v>
+        <v>0.305765</v>
       </c>
       <c r="O12">
-        <v>0.2788086513076536</v>
+        <v>0.01522319557660284</v>
       </c>
       <c r="P12">
-        <v>0.3240060357571966</v>
+        <v>0.01935343274127499</v>
       </c>
       <c r="Q12">
-        <v>135.94322663442</v>
+        <v>7.5183149331</v>
       </c>
       <c r="R12">
-        <v>1223.48903970978</v>
+        <v>67.66483439790001</v>
       </c>
       <c r="S12">
-        <v>0.2213242506518396</v>
+        <v>0.01101793658258888</v>
       </c>
       <c r="T12">
-        <v>0.2722392656749831</v>
+        <v>0.01542783203606769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>221.29686</v>
       </c>
       <c r="I13">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J13">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07800366666666668</v>
+        <v>0.2417476666666667</v>
       </c>
       <c r="N13">
-        <v>0.234011</v>
+        <v>0.7252430000000001</v>
       </c>
       <c r="O13">
-        <v>0.01180096946458619</v>
+        <v>0.03610784762664848</v>
       </c>
       <c r="P13">
-        <v>0.01371401251854675</v>
+        <v>0.04590434360237601</v>
       </c>
       <c r="Q13">
-        <v>5.753988833940001</v>
+        <v>17.83266651522</v>
       </c>
       <c r="R13">
-        <v>51.78589950546001</v>
+        <v>160.49399863698</v>
       </c>
       <c r="S13">
-        <v>0.009367861117167135</v>
+        <v>0.02613340762012168</v>
       </c>
       <c r="T13">
-        <v>0.01152291095066048</v>
+        <v>0.03659322417325019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H14">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I14">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J14">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.4275125</v>
+        <v>2.78461</v>
       </c>
       <c r="N14">
-        <v>2.855025</v>
+        <v>5.56922</v>
       </c>
       <c r="O14">
-        <v>0.2159646096484578</v>
+        <v>0.4159141428995865</v>
       </c>
       <c r="P14">
-        <v>0.1673162739818381</v>
+        <v>0.3525044550271074</v>
       </c>
       <c r="Q14">
-        <v>20.72596619548125</v>
+        <v>65.97925663094</v>
       </c>
       <c r="R14">
-        <v>82.90386478192499</v>
+        <v>263.91702652376</v>
       </c>
       <c r="S14">
-        <v>0.03374319597096281</v>
+        <v>0.09669124954124671</v>
       </c>
       <c r="T14">
-        <v>0.01844698770264672</v>
+        <v>0.06017405633070398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H15">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I15">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J15">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.045180999999999</v>
       </c>
       <c r="O15">
-        <v>0.254424052392026</v>
+        <v>0.2511856395675132</v>
       </c>
       <c r="P15">
-        <v>0.2956684745261299</v>
+        <v>0.3193353429956289</v>
       </c>
       <c r="Q15">
-        <v>24.4168908867895</v>
+        <v>39.847266696658</v>
       </c>
       <c r="R15">
-        <v>146.501345320737</v>
+        <v>239.083600179948</v>
       </c>
       <c r="S15">
-        <v>0.03975225697194201</v>
+        <v>0.05839535339500044</v>
       </c>
       <c r="T15">
-        <v>0.03259810049461103</v>
+        <v>0.05451194344856145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H16">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I16">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J16">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2411293333333333</v>
+        <v>0.383298</v>
       </c>
       <c r="N16">
-        <v>0.723388</v>
+        <v>1.149894</v>
       </c>
       <c r="O16">
-        <v>0.0364798223119771</v>
+        <v>0.05725004907154887</v>
       </c>
       <c r="P16">
-        <v>0.04239352888439643</v>
+        <v>0.07278268012557246</v>
       </c>
       <c r="Q16">
-        <v>3.500941961212666</v>
+        <v>9.081960169692</v>
       </c>
       <c r="R16">
-        <v>21.005651767276</v>
+        <v>54.491761018152</v>
       </c>
       <c r="S16">
-        <v>0.005699756989178226</v>
+        <v>0.0133094266581894</v>
       </c>
       <c r="T16">
-        <v>0.004673979926705442</v>
+        <v>0.0124243226754085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H17">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I17">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J17">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.338657</v>
+        <v>1.5018515</v>
       </c>
       <c r="N17">
-        <v>2.677314</v>
+        <v>3.003703</v>
       </c>
       <c r="O17">
-        <v>0.2025218948752992</v>
+        <v>0.2243191252581002</v>
       </c>
       <c r="P17">
-        <v>0.1569016743318924</v>
+        <v>0.1901197455080402</v>
       </c>
       <c r="Q17">
-        <v>19.4358786555945</v>
+        <v>35.585250911281</v>
       </c>
       <c r="R17">
-        <v>77.743514622378</v>
+        <v>142.341003645124</v>
       </c>
       <c r="S17">
-        <v>0.03164285110561284</v>
+        <v>0.0521494565344503</v>
       </c>
       <c r="T17">
-        <v>0.01729875515420141</v>
+        <v>0.03245427430101604</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H18">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I18">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J18">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.842907666666667</v>
+        <v>0.1019216666666667</v>
       </c>
       <c r="N18">
-        <v>5.528723</v>
+        <v>0.305765</v>
       </c>
       <c r="O18">
-        <v>0.2788086513076536</v>
+        <v>0.01522319557660284</v>
       </c>
       <c r="P18">
-        <v>0.3240060357571966</v>
+        <v>0.01935343274127499</v>
       </c>
       <c r="Q18">
-        <v>26.75706307351183</v>
+        <v>2.414957858103334</v>
       </c>
       <c r="R18">
-        <v>160.542378441071</v>
+        <v>14.48974714862</v>
       </c>
       <c r="S18">
-        <v>0.04356220667260226</v>
+        <v>0.003539071290172208</v>
       </c>
       <c r="T18">
-        <v>0.03572237903077559</v>
+        <v>0.003303715840630772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H19">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I19">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J19">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07800366666666668</v>
+        <v>0.2417476666666667</v>
       </c>
       <c r="N19">
-        <v>0.234011</v>
+        <v>0.7252430000000001</v>
       </c>
       <c r="O19">
-        <v>0.01180096946458619</v>
+        <v>0.03610784762664848</v>
       </c>
       <c r="P19">
-        <v>0.01371401251854675</v>
+        <v>0.04590434360237601</v>
       </c>
       <c r="Q19">
-        <v>1.132530439107833</v>
+        <v>5.728030617907335</v>
       </c>
       <c r="R19">
-        <v>6.795182634647</v>
+        <v>34.368183707444</v>
       </c>
       <c r="S19">
-        <v>0.001843831847908157</v>
+        <v>0.008394311578167427</v>
       </c>
       <c r="T19">
-        <v>0.001512000083811547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H20">
-        <v>11.190451</v>
-      </c>
-      <c r="I20">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J20">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>1.4275125</v>
-      </c>
-      <c r="N20">
-        <v>2.855025</v>
-      </c>
-      <c r="O20">
-        <v>0.2159646096484578</v>
-      </c>
-      <c r="P20">
-        <v>0.1673162739818381</v>
-      </c>
-      <c r="Q20">
-        <v>5.324836227712501</v>
-      </c>
-      <c r="R20">
-        <v>31.949017366275</v>
-      </c>
-      <c r="S20">
-        <v>0.008669173280045159</v>
-      </c>
-      <c r="T20">
-        <v>0.007108994641174034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H21">
-        <v>11.190451</v>
-      </c>
-      <c r="I21">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J21">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.681727</v>
-      </c>
-      <c r="N21">
-        <v>5.045180999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.254424052392026</v>
-      </c>
-      <c r="P21">
-        <v>0.2956684745261299</v>
-      </c>
-      <c r="Q21">
-        <v>6.273094529625666</v>
-      </c>
-      <c r="R21">
-        <v>56.457850766631</v>
-      </c>
-      <c r="S21">
-        <v>0.01021299832592044</v>
-      </c>
-      <c r="T21">
-        <v>0.01256246957303458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H22">
-        <v>11.190451</v>
-      </c>
-      <c r="I22">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J22">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.2411293333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.723388</v>
-      </c>
-      <c r="O22">
-        <v>0.0364798223119771</v>
-      </c>
-      <c r="P22">
-        <v>0.04239352888439643</v>
-      </c>
-      <c r="Q22">
-        <v>0.8994486631097779</v>
-      </c>
-      <c r="R22">
-        <v>8.095037967988</v>
-      </c>
-      <c r="S22">
-        <v>0.001464359838227992</v>
-      </c>
-      <c r="T22">
-        <v>0.001801231658388141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H23">
-        <v>11.190451</v>
-      </c>
-      <c r="I23">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J23">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.338657</v>
-      </c>
-      <c r="N23">
-        <v>2.677314</v>
-      </c>
-      <c r="O23">
-        <v>0.2025218948752992</v>
-      </c>
-      <c r="P23">
-        <v>0.1569016743318924</v>
-      </c>
-      <c r="Q23">
-        <v>4.993391854769</v>
-      </c>
-      <c r="R23">
-        <v>29.960351128614</v>
-      </c>
-      <c r="S23">
-        <v>0.00812956068373861</v>
-      </c>
-      <c r="T23">
-        <v>0.006666495347235214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H24">
-        <v>11.190451</v>
-      </c>
-      <c r="I24">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J24">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.842907666666667</v>
-      </c>
-      <c r="N24">
-        <v>5.528723</v>
-      </c>
-      <c r="O24">
-        <v>0.2788086513076536</v>
-      </c>
-      <c r="P24">
-        <v>0.3240060357571966</v>
-      </c>
-      <c r="Q24">
-        <v>6.874322647119224</v>
-      </c>
-      <c r="R24">
-        <v>61.86890382407301</v>
-      </c>
-      <c r="S24">
-        <v>0.01119183607951387</v>
-      </c>
-      <c r="T24">
-        <v>0.01376648617071151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H25">
-        <v>11.190451</v>
-      </c>
-      <c r="I25">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J25">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.07800366666666668</v>
-      </c>
-      <c r="N25">
-        <v>0.234011</v>
-      </c>
-      <c r="O25">
-        <v>0.01180096946458619</v>
-      </c>
-      <c r="P25">
-        <v>0.01371401251854675</v>
-      </c>
-      <c r="Q25">
-        <v>0.290965403217889</v>
-      </c>
-      <c r="R25">
-        <v>2.618688628961001</v>
-      </c>
-      <c r="S25">
-        <v>0.0004737102496911348</v>
-      </c>
-      <c r="T25">
-        <v>0.0005826859466995129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.094925</v>
-      </c>
-      <c r="I26">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J26">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>1.4275125</v>
-      </c>
-      <c r="N26">
-        <v>2.855025</v>
-      </c>
-      <c r="O26">
-        <v>0.2159646096484578</v>
-      </c>
-      <c r="P26">
-        <v>0.1673162739818381</v>
-      </c>
-      <c r="Q26">
-        <v>0.0451688746875</v>
-      </c>
-      <c r="R26">
-        <v>0.271013248125</v>
-      </c>
-      <c r="S26">
-        <v>7.3537811265005E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.030331720441339E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.094925</v>
-      </c>
-      <c r="I27">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J27">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.681727</v>
-      </c>
-      <c r="N27">
-        <v>5.045180999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.254424052392026</v>
-      </c>
-      <c r="P27">
-        <v>0.2956684745261299</v>
-      </c>
-      <c r="Q27">
-        <v>0.05321264515833332</v>
-      </c>
-      <c r="R27">
-        <v>0.4789138064249999</v>
-      </c>
-      <c r="S27">
-        <v>8.663358305112078E-05</v>
-      </c>
-      <c r="T27">
-        <v>0.0001065633926836646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.094925</v>
-      </c>
-      <c r="I28">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J28">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2411293333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.723388</v>
-      </c>
-      <c r="O28">
-        <v>0.0364798223119771</v>
-      </c>
-      <c r="P28">
-        <v>0.04239352888439643</v>
-      </c>
-      <c r="Q28">
-        <v>0.007629733988888889</v>
-      </c>
-      <c r="R28">
-        <v>0.0686676059</v>
-      </c>
-      <c r="S28">
-        <v>1.24216939642372E-05</v>
-      </c>
-      <c r="T28">
-        <v>1.52792693674718E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.094925</v>
-      </c>
-      <c r="I29">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J29">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.338657</v>
-      </c>
-      <c r="N29">
-        <v>2.677314</v>
-      </c>
-      <c r="O29">
-        <v>0.2025218948752992</v>
-      </c>
-      <c r="P29">
-        <v>0.1569016743318924</v>
-      </c>
-      <c r="Q29">
-        <v>0.042357338575</v>
-      </c>
-      <c r="R29">
-        <v>0.25414403145</v>
-      </c>
-      <c r="S29">
-        <v>6.896045100451156E-05</v>
-      </c>
-      <c r="T29">
-        <v>5.654973788244125E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.094925</v>
-      </c>
-      <c r="I30">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J30">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.842907666666667</v>
-      </c>
-      <c r="N30">
-        <v>5.528723</v>
-      </c>
-      <c r="O30">
-        <v>0.2788086513076536</v>
-      </c>
-      <c r="P30">
-        <v>0.3240060357571966</v>
-      </c>
-      <c r="Q30">
-        <v>0.05831267008611112</v>
-      </c>
-      <c r="R30">
-        <v>0.524814030775</v>
-      </c>
-      <c r="S30">
-        <v>9.493674918444785E-05</v>
-      </c>
-      <c r="T30">
-        <v>0.0001167766785945258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.094925</v>
-      </c>
-      <c r="I31">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J31">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.07800366666666668</v>
-      </c>
-      <c r="N31">
-        <v>0.234011</v>
-      </c>
-      <c r="O31">
-        <v>0.01180096946458619</v>
-      </c>
-      <c r="P31">
-        <v>0.01371401251854675</v>
-      </c>
-      <c r="Q31">
-        <v>0.002468166019444445</v>
-      </c>
-      <c r="R31">
-        <v>0.022213494175</v>
-      </c>
-      <c r="S31">
-        <v>4.018331830587611E-06</v>
-      </c>
-      <c r="T31">
-        <v>4.942737651096569E-06</v>
+        <v>0.007836072759820721</v>
       </c>
     </row>
   </sheetData>
